--- a/EJBComponents/ImageProcessingBenchmark/stats/resourceContention/ExcelSheets/analysis-2-subImages.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark/stats/resourceContention/ExcelSheets/analysis-2-subImages.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>2sub-images - time duration for each phase and the corresponding threads - Local</t>
   </si>
@@ -36,60 +36,21 @@
     <t>preparation</t>
   </si>
   <si>
-    <t>13:10:2 - 13:10:41</t>
-  </si>
-  <si>
     <t>grayscaling</t>
   </si>
   <si>
-    <t>13:10:41 - 13:11:35 (19.)</t>
-  </si>
-  <si>
-    <t>13:10:41 - 13:11:35 (18.)</t>
-  </si>
-  <si>
     <t>errosion</t>
   </si>
   <si>
-    <t>13:12:20 - 13:13:7 (19.)</t>
-  </si>
-  <si>
-    <t>13:12:19 - 13:13:6 (18.)</t>
-  </si>
-  <si>
     <t>image2</t>
   </si>
   <si>
-    <t>13:11:35 - 13:12:19</t>
-  </si>
-  <si>
-    <t>13:11:35 - 13:12:20</t>
-  </si>
-  <si>
-    <t>13:13:6 - 13:13:36 (18.)</t>
-  </si>
-  <si>
-    <t>13:13:7 - 13:13:37 (19.)</t>
-  </si>
-  <si>
-    <t>13:14:17 - 13:15:2 (18.)</t>
-  </si>
-  <si>
-    <t>13:14:19 - 13:15:3 (19.)</t>
-  </si>
-  <si>
     <t>image3</t>
   </si>
   <si>
-    <t>13:13:36 - 13:14:17</t>
-  </si>
-  <si>
     <t>13:13:37 - 13:14:19</t>
   </si>
   <si>
-    <t>13:15:2 - 13:15:29 (18.)</t>
-  </si>
-  <si>
     <t>13:15:3 - 13:15:30 (19.)</t>
   </si>
   <si>
@@ -226,6 +187,48 @@
   </si>
   <si>
     <t>1:46:57 - 1:46:59 (122.)</t>
+  </si>
+  <si>
+    <t>13:10:2 - 13:10:41- (0:39) - (0)</t>
+  </si>
+  <si>
+    <t>13:10:41 - 13:11:35 (19.) - (0:54) - (0:45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:12:20 - 13:13:7 (19.) - (0:47) </t>
+  </si>
+  <si>
+    <t>13:11:35 - 13:12:19 - (0:44) - (0:47)</t>
+  </si>
+  <si>
+    <t>13:13:6 - 13:13:36 (18.) - (0:30) - (0:41)</t>
+  </si>
+  <si>
+    <t>13:14:17 - 13:15:2 (18.) - (0:45)</t>
+  </si>
+  <si>
+    <t>13:10:2 - 13:10:41 - (0:39) - (0)</t>
+  </si>
+  <si>
+    <t>13:10:41 - 13:11:35 (18.) - (0:54) - (0:44)</t>
+  </si>
+  <si>
+    <t>13:12:19 - 13:13:6 (18.)  - (0:47)</t>
+  </si>
+  <si>
+    <t>13:11:35 - 13:12:20 - (0:45) - (0:47)</t>
+  </si>
+  <si>
+    <t>13:13:7 - 13:13:37 (19.) - (0:30) - (0:42)</t>
+  </si>
+  <si>
+    <t>13:14:19 - 13:15:3 (19.) - (0:44)</t>
+  </si>
+  <si>
+    <t>13:13:36 - 13:14:17 - (0:41) - (0:45)</t>
+  </si>
+  <si>
+    <t>13:15:2 - 13:15:29 (18.) - (0:27) - (</t>
   </si>
 </sst>
 </file>
@@ -723,10 +726,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1052,25 +1055,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1088,37 +1091,37 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1132,37 +1135,37 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -1176,37 +1179,37 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -1220,37 +1223,37 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -1264,42 +1267,42 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1317,37 +1320,37 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -1361,37 +1364,37 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
@@ -1405,37 +1408,37 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -1449,37 +1452,37 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -1493,32 +1496,32 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
